--- a/resources/experiment 1/predictions/multiple/LinearRegression/average time/Enfermedades cardíacas.xlsx
+++ b/resources/experiment 1/predictions/multiple/LinearRegression/average time/Enfermedades cardíacas.xlsx
@@ -562,7 +562,7 @@
         <v>29.18499922969961</v>
       </c>
       <c r="J3" t="n">
-        <v>25.87104878245525</v>
+        <v>25.87104878245526</v>
       </c>
       <c r="K3" t="n">
         <v>18.7381643512611</v>
@@ -614,7 +614,7 @@
         <v>28.01743318486904</v>
       </c>
       <c r="B5" t="n">
-        <v>22.24515852465426</v>
+        <v>22.24515852465427</v>
       </c>
       <c r="C5" t="n">
         <v>33.73824654069772</v>
@@ -734,7 +734,7 @@
         <v>12.89771715391016</v>
       </c>
       <c r="D8" t="n">
-        <v>7.858993802278217</v>
+        <v>7.858993802278214</v>
       </c>
       <c r="E8" t="n">
         <v>3.610274122733367</v>
@@ -743,7 +743,7 @@
         <v>12.85982747287973</v>
       </c>
       <c r="G8" t="n">
-        <v>7.892329603788413</v>
+        <v>7.892329603788415</v>
       </c>
       <c r="H8" t="n">
         <v>3.843870241100484</v>
@@ -772,7 +772,7 @@
         <v>29.27040674726859</v>
       </c>
       <c r="D9" t="n">
-        <v>23.45717129831562</v>
+        <v>23.45717129831563</v>
       </c>
       <c r="E9" t="n">
         <v>19.15738864760423</v>
@@ -804,31 +804,31 @@
         <v>9.076173306733009</v>
       </c>
       <c r="B10" t="n">
-        <v>4.767348918656955</v>
+        <v>4.767348918656957</v>
       </c>
       <c r="C10" t="n">
         <v>14.41775252573267</v>
       </c>
       <c r="D10" t="n">
-        <v>8.975633313045162</v>
+        <v>8.97563331304516</v>
       </c>
       <c r="E10" t="n">
         <v>4.40607809797965</v>
       </c>
       <c r="F10" t="n">
-        <v>14.32636314461397</v>
+        <v>14.32636314461398</v>
       </c>
       <c r="G10" t="n">
-        <v>9.022756064048403</v>
+        <v>9.022756064048405</v>
       </c>
       <c r="H10" t="n">
-        <v>4.592767504900028</v>
+        <v>4.59276750490003</v>
       </c>
       <c r="I10" t="n">
         <v>14.59644949061411</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969245956491337</v>
+        <v>8.969245956491338</v>
       </c>
       <c r="K10" t="n">
         <v>4.783264760357033</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>30.06382435002722</v>
+        <v>30.06382435002721</v>
       </c>
       <c r="B15" t="n">
         <v>23.67357674535751</v>
@@ -1012,7 +1012,7 @@
         <v>29.95292967586083</v>
       </c>
       <c r="H15" t="n">
-        <v>25.00434616065431</v>
+        <v>25.00434616065432</v>
       </c>
       <c r="I15" t="n">
         <v>34.873788090013</v>
@@ -1228,7 +1228,7 @@
         <v>34.45222669788203</v>
       </c>
       <c r="D21" t="n">
-        <v>27.71116009475518</v>
+        <v>27.71116009475519</v>
       </c>
       <c r="E21" t="n">
         <v>22.89212712608616</v>
@@ -1243,7 +1243,7 @@
         <v>22.69115395677177</v>
       </c>
       <c r="I21" t="n">
-        <v>32.82564995161331</v>
+        <v>32.82564995161332</v>
       </c>
       <c r="J21" t="n">
         <v>27.60477668874497</v>
@@ -1260,13 +1260,13 @@
         <v>10.15272072196636</v>
       </c>
       <c r="B22" t="n">
-        <v>5.524884413726907</v>
+        <v>5.524884413726909</v>
       </c>
       <c r="C22" t="n">
         <v>15.9094276853256</v>
       </c>
       <c r="D22" t="n">
-        <v>10.01929401057273</v>
+        <v>10.01929401057272</v>
       </c>
       <c r="E22" t="n">
         <v>5.137368931670515</v>
@@ -1404,7 +1404,7 @@
         <v>15.71809538113581</v>
       </c>
       <c r="L25" t="n">
-        <v>29.25074111747484</v>
+        <v>29.25074111747483</v>
       </c>
     </row>
     <row r="26">
@@ -1579,7 +1579,7 @@
         <v>28.84908555095868</v>
       </c>
       <c r="G30" t="n">
-        <v>23.09294339120933</v>
+        <v>23.09294339120934</v>
       </c>
       <c r="H30" t="n">
         <v>18.04205949789301</v>
@@ -1640,7 +1640,7 @@
         <v>11.40929705082258</v>
       </c>
       <c r="B32" t="n">
-        <v>6.938620153869749</v>
+        <v>6.93862015386975</v>
       </c>
       <c r="C32" t="n">
         <v>16.67294258161942</v>
@@ -1667,10 +1667,10 @@
         <v>11.218504029794</v>
       </c>
       <c r="K32" t="n">
-        <v>6.681534425832756</v>
+        <v>6.681534425832757</v>
       </c>
       <c r="L32" t="n">
-        <v>16.85852720954778</v>
+        <v>16.85852720954777</v>
       </c>
     </row>
     <row r="33">
@@ -1678,7 +1678,7 @@
         <v>15.62875646210755</v>
       </c>
       <c r="B33" t="n">
-        <v>10.40833045563078</v>
+        <v>10.40833045563079</v>
       </c>
       <c r="C33" t="n">
         <v>21.84058242611806</v>
@@ -1702,7 +1702,7 @@
         <v>21.47472717206457</v>
       </c>
       <c r="J33" t="n">
-        <v>15.43468757075049</v>
+        <v>15.43468757075048</v>
       </c>
       <c r="K33" t="n">
         <v>9.867452179250048</v>
@@ -1836,7 +1836,7 @@
         <v>35.90136153913057</v>
       </c>
       <c r="D37" t="n">
-        <v>28.64535257242367</v>
+        <v>28.64535257242368</v>
       </c>
       <c r="E37" t="n">
         <v>23.52664824744391</v>
@@ -1968,7 +1968,7 @@
         <v>29.85646947044543</v>
       </c>
       <c r="J40" t="n">
-        <v>25.60275476088778</v>
+        <v>25.60275476088777</v>
       </c>
       <c r="K40" t="n">
         <v>18.20334066907287</v>
@@ -1988,7 +1988,7 @@
         <v>21.81921663465361</v>
       </c>
       <c r="D41" t="n">
-        <v>16.85406806739317</v>
+        <v>16.85406806739318</v>
       </c>
       <c r="E41" t="n">
         <v>12.98921050413355</v>
@@ -2105,7 +2105,7 @@
         <v>14.72389007262843</v>
       </c>
       <c r="E44" t="n">
-        <v>10.74931026381105</v>
+        <v>10.74931026381106</v>
       </c>
       <c r="F44" t="n">
         <v>19.00318595228805</v>
@@ -2140,7 +2140,7 @@
         <v>28.44317700575046</v>
       </c>
       <c r="D45" t="n">
-        <v>20.6209601915969</v>
+        <v>20.62096019159689</v>
       </c>
       <c r="E45" t="n">
         <v>14.81448955817917</v>
@@ -2222,7 +2222,7 @@
         <v>5.73963348225055</v>
       </c>
       <c r="F47" t="n">
-        <v>17.20698977508387</v>
+        <v>17.20698977508388</v>
       </c>
       <c r="G47" t="n">
         <v>10.94199274545675</v>
@@ -2403,13 +2403,13 @@
         <v>8.265703124575925</v>
       </c>
       <c r="C52" t="n">
-        <v>17.40809726568366</v>
+        <v>17.40809726568367</v>
       </c>
       <c r="D52" t="n">
         <v>12.48424385800461</v>
       </c>
       <c r="E52" t="n">
-        <v>8.412640311155435</v>
+        <v>8.412640311155437</v>
       </c>
       <c r="F52" t="n">
         <v>16.96414057798504</v>
@@ -2465,7 +2465,7 @@
         <v>25.0942438859155</v>
       </c>
       <c r="K53" t="n">
-        <v>17.28528909538827</v>
+        <v>17.28528909538826</v>
       </c>
       <c r="L53" t="n">
         <v>34.40811358044854</v>
@@ -2590,7 +2590,7 @@
         <v>11.35594521816832</v>
       </c>
       <c r="B57" t="n">
-        <v>6.895293769151416</v>
+        <v>6.895293769151417</v>
       </c>
       <c r="C57" t="n">
         <v>16.65876247550463</v>
@@ -2611,13 +2611,13 @@
         <v>6.905959708782579</v>
       </c>
       <c r="I57" t="n">
-        <v>16.6445876290138</v>
+        <v>16.64458762901379</v>
       </c>
       <c r="J57" t="n">
         <v>11.21148473775332</v>
       </c>
       <c r="K57" t="n">
-        <v>6.643635478159792</v>
+        <v>6.643635478159793</v>
       </c>
       <c r="L57" t="n">
         <v>16.85241271873539</v>
@@ -2842,13 +2842,13 @@
         <v>25.67892579179401</v>
       </c>
       <c r="J63" t="n">
-        <v>18.40964329437359</v>
+        <v>18.40964329437358</v>
       </c>
       <c r="K63" t="n">
         <v>11.93157062801777</v>
       </c>
       <c r="L63" t="n">
-        <v>26.98379131915458</v>
+        <v>26.98379131915459</v>
       </c>
     </row>
     <row r="64">
@@ -2891,10 +2891,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.27939780293498</v>
+        <v>10.27939780293497</v>
       </c>
       <c r="B65" t="n">
-        <v>6.137758274081464</v>
+        <v>6.137758274081465</v>
       </c>
       <c r="C65" t="n">
         <v>15.1670873159117</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.17591630454544</v>
+        <v>11.17591630454545</v>
       </c>
       <c r="B69" t="n">
-        <v>6.239093524078527</v>
+        <v>6.239093524078528</v>
       </c>
       <c r="C69" t="n">
         <v>17.38692273880373</v>
@@ -3055,7 +3055,7 @@
         <v>11.0264653014806</v>
       </c>
       <c r="E69" t="n">
-        <v>5.836403194583674</v>
+        <v>5.836403194583673</v>
       </c>
       <c r="F69" t="n">
         <v>17.22665654245835</v>
@@ -3073,7 +3073,7 @@
         <v>10.96424859230786</v>
       </c>
       <c r="K69" t="n">
-        <v>6.222508638990455</v>
+        <v>6.222508638990456</v>
       </c>
       <c r="L69" t="n">
         <v>17.43416594615351</v>
@@ -3090,7 +3090,7 @@
         <v>31.45469627258138</v>
       </c>
       <c r="D70" t="n">
-        <v>25.58734929308036</v>
+        <v>25.58734929308037</v>
       </c>
       <c r="E70" t="n">
         <v>21.39728888792672</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>19.18507811805919</v>
+        <v>19.18507811805918</v>
       </c>
       <c r="B71" t="n">
         <v>14.47623213718598</v>
@@ -3131,7 +3131,7 @@
         <v>19.16669309525637</v>
       </c>
       <c r="E71" t="n">
-        <v>15.39039359834459</v>
+        <v>15.39039359834458</v>
       </c>
       <c r="F71" t="n">
         <v>23.07472111176924</v>
@@ -3181,7 +3181,7 @@
         <v>16.74865543031678</v>
       </c>
       <c r="I72" t="n">
-        <v>26.00976529566846</v>
+        <v>26.00976529566847</v>
       </c>
       <c r="J72" t="n">
         <v>21.1463543665265</v>
